--- a/SchedulingData/static6/pso/scheduling1_14.xlsx
+++ b/SchedulingData/static6/pso/scheduling1_14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,83 +462,83 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>64.34</v>
+        <v>85.64</v>
       </c>
       <c r="E2" t="n">
-        <v>25.736</v>
+        <v>25.576</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.90000000000001</v>
+        <v>46.84</v>
       </c>
       <c r="E3" t="n">
-        <v>26.2</v>
+        <v>26.516</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>46.84</v>
       </c>
       <c r="D4" t="n">
-        <v>87.38</v>
+        <v>89.84</v>
       </c>
       <c r="E4" t="n">
-        <v>26.412</v>
+        <v>22.856</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>40</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>26.7</v>
+        <v>24.96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -546,94 +546,94 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>69.90000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>147.52</v>
+        <v>134.92</v>
       </c>
       <c r="E6" t="n">
-        <v>21.048</v>
+        <v>19.808</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>87.38</v>
+        <v>89.84</v>
       </c>
       <c r="D7" t="n">
-        <v>164.48</v>
+        <v>172.08</v>
       </c>
       <c r="E7" t="n">
-        <v>22.332</v>
+        <v>18.712</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>59.04</v>
+        <v>54.9</v>
       </c>
       <c r="E8" t="n">
-        <v>25.776</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>164.48</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>212.32</v>
+        <v>72.66</v>
       </c>
       <c r="E9" t="n">
-        <v>18.188</v>
+        <v>24.904</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>212.32</v>
+        <v>172.08</v>
       </c>
       <c r="D10" t="n">
-        <v>255.54</v>
+        <v>235.58</v>
       </c>
       <c r="E10" t="n">
-        <v>14.996</v>
+        <v>14.992</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -641,37 +641,37 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>147.52</v>
+        <v>134.92</v>
       </c>
       <c r="D11" t="n">
-        <v>194.42</v>
+        <v>181.82</v>
       </c>
       <c r="E11" t="n">
-        <v>17.488</v>
+        <v>16.248</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>64.34</v>
+        <v>235.58</v>
       </c>
       <c r="D12" t="n">
-        <v>113.46</v>
+        <v>265.18</v>
       </c>
       <c r="E12" t="n">
-        <v>21.464</v>
+        <v>12.672</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -679,13 +679,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>113.46</v>
+        <v>85.64</v>
       </c>
       <c r="D13" t="n">
-        <v>189.5</v>
+        <v>146.98</v>
       </c>
       <c r="E13" t="n">
-        <v>17.46</v>
+        <v>21.572</v>
       </c>
     </row>
     <row r="14">
@@ -694,150 +694,150 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>181.82</v>
       </c>
       <c r="D14" t="n">
-        <v>54.76</v>
+        <v>229.52</v>
       </c>
       <c r="E14" t="n">
-        <v>26.204</v>
+        <v>12.608</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>189.5</v>
+        <v>229.52</v>
       </c>
       <c r="D15" t="n">
-        <v>243.1</v>
+        <v>315.92</v>
       </c>
       <c r="E15" t="n">
-        <v>13.74</v>
+        <v>8.048</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>59.04</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>130.18</v>
+        <v>68.45999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>22.752</v>
+        <v>26.304</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>130.18</v>
+        <v>68.45999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>184.78</v>
+        <v>128.12</v>
       </c>
       <c r="E17" t="n">
-        <v>20.432</v>
+        <v>21.468</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>146.98</v>
       </c>
       <c r="D18" t="n">
-        <v>117.5</v>
+        <v>209.02</v>
       </c>
       <c r="E18" t="n">
-        <v>23.02</v>
+        <v>17.988</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>54.76</v>
+        <v>54.9</v>
       </c>
       <c r="D19" t="n">
-        <v>122.16</v>
+        <v>113.44</v>
       </c>
       <c r="E19" t="n">
-        <v>22.564</v>
+        <v>21.976</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>184.78</v>
+        <v>128.12</v>
       </c>
       <c r="D20" t="n">
-        <v>284.32</v>
+        <v>200.38</v>
       </c>
       <c r="E20" t="n">
-        <v>16.568</v>
+        <v>16.372</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>243.1</v>
+        <v>200.38</v>
       </c>
       <c r="D21" t="n">
-        <v>316.04</v>
+        <v>254.56</v>
       </c>
       <c r="E21" t="n">
-        <v>10.516</v>
+        <v>13.564</v>
       </c>
     </row>
     <row r="22">
@@ -846,17 +846,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>316.04</v>
+        <v>72.66</v>
       </c>
       <c r="D22" t="n">
-        <v>362.28</v>
+        <v>136.18</v>
       </c>
       <c r="E22" t="n">
-        <v>7.032</v>
+        <v>20.692</v>
       </c>
     </row>
     <row r="23">
@@ -865,36 +865,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>362.28</v>
+        <v>136.18</v>
       </c>
       <c r="D23" t="n">
-        <v>403.76</v>
+        <v>223.98</v>
       </c>
       <c r="E23" t="n">
-        <v>4.524</v>
+        <v>17.012</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>403.76</v>
+        <v>254.56</v>
       </c>
       <c r="D24" t="n">
-        <v>471.62</v>
+        <v>332.9</v>
       </c>
       <c r="E24" t="n">
-        <v>0.828</v>
+        <v>10.34</v>
       </c>
     </row>
     <row r="25">
@@ -903,131 +903,131 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>471.62</v>
+        <v>223.98</v>
       </c>
       <c r="D25" t="n">
-        <v>566.46</v>
+        <v>272.56</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>14.284</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>194.42</v>
+        <v>272.56</v>
       </c>
       <c r="D26" t="n">
-        <v>233</v>
+        <v>341.3</v>
       </c>
       <c r="E26" t="n">
-        <v>14.76</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>284.32</v>
+        <v>209.02</v>
       </c>
       <c r="D27" t="n">
-        <v>354.56</v>
+        <v>290</v>
       </c>
       <c r="E27" t="n">
-        <v>12.144</v>
+        <v>15.48</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>122.16</v>
+        <v>113.44</v>
       </c>
       <c r="D28" t="n">
-        <v>199.22</v>
+        <v>182.46</v>
       </c>
       <c r="E28" t="n">
-        <v>17.468</v>
+        <v>17.704</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>199.22</v>
+        <v>182.46</v>
       </c>
       <c r="D29" t="n">
-        <v>256.58</v>
+        <v>244.36</v>
       </c>
       <c r="E29" t="n">
-        <v>12.372</v>
+        <v>13.624</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>233</v>
+        <v>244.36</v>
       </c>
       <c r="D30" t="n">
-        <v>329.4</v>
+        <v>313.16</v>
       </c>
       <c r="E30" t="n">
-        <v>10.2</v>
+        <v>10.324</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>256.58</v>
+        <v>332.9</v>
       </c>
       <c r="D31" t="n">
-        <v>322.48</v>
+        <v>380.54</v>
       </c>
       <c r="E31" t="n">
-        <v>6.912</v>
+        <v>7.216</v>
       </c>
     </row>
     <row r="32">
@@ -1036,17 +1036,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>117.5</v>
+        <v>313.16</v>
       </c>
       <c r="D32" t="n">
-        <v>195.9</v>
+        <v>371.8</v>
       </c>
       <c r="E32" t="n">
-        <v>20.26</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="33">
@@ -1055,55 +1055,55 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>195.9</v>
+        <v>371.8</v>
       </c>
       <c r="D33" t="n">
-        <v>270.36</v>
+        <v>440.08</v>
       </c>
       <c r="E33" t="n">
-        <v>15.424</v>
+        <v>3.852</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>354.56</v>
+        <v>290</v>
       </c>
       <c r="D34" t="n">
-        <v>408.44</v>
+        <v>375.8</v>
       </c>
       <c r="E34" t="n">
-        <v>8.896000000000001</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>329.4</v>
+        <v>375.8</v>
       </c>
       <c r="D35" t="n">
-        <v>405.9</v>
+        <v>429.82</v>
       </c>
       <c r="E35" t="n">
-        <v>5.16</v>
+        <v>7.248</v>
       </c>
     </row>
     <row r="36">
@@ -1112,112 +1112,112 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>322.48</v>
+        <v>315.92</v>
       </c>
       <c r="D36" t="n">
-        <v>370.02</v>
+        <v>363.42</v>
       </c>
       <c r="E36" t="n">
-        <v>3.788</v>
+        <v>4.928</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>370.02</v>
+        <v>265.18</v>
       </c>
       <c r="D37" t="n">
-        <v>418.66</v>
+        <v>338.58</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5639999999999999</v>
+        <v>9.912000000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>418.66</v>
+        <v>440.08</v>
       </c>
       <c r="D38" t="n">
-        <v>509.23</v>
+        <v>516.28</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>405.9</v>
+        <v>516.28</v>
       </c>
       <c r="D39" t="n">
-        <v>449.82</v>
+        <v>582.66</v>
       </c>
       <c r="E39" t="n">
-        <v>2.388</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>449.82</v>
+        <v>338.58</v>
       </c>
       <c r="D40" t="n">
-        <v>521.9400000000001</v>
+        <v>385.6</v>
       </c>
       <c r="E40" t="n">
-        <v>30</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>521.9400000000001</v>
+        <v>582.66</v>
       </c>
       <c r="D41" t="n">
-        <v>604.28</v>
+        <v>617.76</v>
       </c>
       <c r="E41" t="n">
-        <v>26.416</v>
+        <v>27.68</v>
       </c>
     </row>
     <row r="42">
@@ -1226,17 +1226,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>509.23</v>
+        <v>363.42</v>
       </c>
       <c r="D42" t="n">
-        <v>544.33</v>
+        <v>417.24</v>
       </c>
       <c r="E42" t="n">
-        <v>27.68</v>
+        <v>2.156</v>
       </c>
     </row>
     <row r="43">
@@ -1245,36 +1245,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>255.54</v>
+        <v>429.82</v>
       </c>
       <c r="D43" t="n">
-        <v>333.04</v>
+        <v>513.72</v>
       </c>
       <c r="E43" t="n">
-        <v>11.336</v>
+        <v>1.968</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>270.36</v>
+        <v>513.72</v>
       </c>
       <c r="D44" t="n">
-        <v>339.56</v>
+        <v>596.38</v>
       </c>
       <c r="E44" t="n">
-        <v>10.144</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
@@ -1283,169 +1283,188 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>544.33</v>
+        <v>417.24</v>
       </c>
       <c r="D45" t="n">
-        <v>586.9299999999999</v>
+        <v>509.53</v>
       </c>
       <c r="E45" t="n">
-        <v>24.56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>339.56</v>
+        <v>509.53</v>
       </c>
       <c r="D46" t="n">
-        <v>388.68</v>
+        <v>582.95</v>
       </c>
       <c r="E46" t="n">
-        <v>7.372</v>
+        <v>26.808</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>604.28</v>
+        <v>341.3</v>
       </c>
       <c r="D47" t="n">
-        <v>663.26</v>
+        <v>418.38</v>
       </c>
       <c r="E47" t="n">
-        <v>23.608</v>
+        <v>6.432</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>408.44</v>
+        <v>380.54</v>
       </c>
       <c r="D48" t="n">
-        <v>502.34</v>
+        <v>439.8</v>
       </c>
       <c r="E48" t="n">
-        <v>4.096</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>502.34</v>
+        <v>418.38</v>
       </c>
       <c r="D49" t="n">
-        <v>569.36</v>
+        <v>508.12</v>
       </c>
       <c r="E49" t="n">
-        <v>1.504</v>
+        <v>2.568</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>569.36</v>
+        <v>439.8</v>
       </c>
       <c r="D50" t="n">
-        <v>652.95</v>
+        <v>509.94</v>
       </c>
       <c r="E50" t="n">
-        <v>30</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>333.04</v>
+        <v>509.94</v>
       </c>
       <c r="D51" t="n">
-        <v>397.98</v>
+        <v>600.41</v>
       </c>
       <c r="E51" t="n">
-        <v>8.432</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>397.98</v>
+        <v>385.6</v>
       </c>
       <c r="D52" t="n">
-        <v>464.28</v>
+        <v>451.94</v>
       </c>
       <c r="E52" t="n">
-        <v>4.892</v>
+        <v>4.296</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>566.46</v>
+        <v>451.94</v>
       </c>
       <c r="D53" t="n">
-        <v>635.28</v>
+        <v>549.65</v>
       </c>
       <c r="E53" t="n">
-        <v>25.788</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>3</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>pond63</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>549.65</v>
+      </c>
+      <c r="D54" t="n">
+        <v>619.55</v>
+      </c>
+      <c r="E54" t="n">
+        <v>25.2</v>
       </c>
     </row>
   </sheetData>
